--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298128.1558894179</v>
+        <v>297534.2891781792</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="C11" t="n">
-        <v>101.7754565731324</v>
+        <v>11.30283095546716</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124627</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.047422663360152</v>
+        <v>6.04742266336018</v>
       </c>
       <c r="W12" t="n">
-        <v>18.83846641623384</v>
+        <v>18.83846641623387</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754366</v>
+        <v>9.884882276754396</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177295</v>
+        <v>64.24262914177298</v>
       </c>
       <c r="V13" t="n">
-        <v>38.0637077343724</v>
+        <v>38.06370773437243</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498566</v>
+        <v>63.23059380498569</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788776</v>
+        <v>8.875695800788804</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>115.9330281675682</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>131.6224207170393</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>104.6301972121008</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.540989558179717e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.23475461124614</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>110.6904970612605</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.047422663360123</v>
+        <v>6.04742266336001</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623381</v>
+        <v>18.8384664162337</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754338</v>
+        <v>9.884882276754226</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177292</v>
+        <v>64.24262914177281</v>
       </c>
       <c r="V16" t="n">
-        <v>38.06370773437237</v>
+        <v>38.06370773437226</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498563</v>
+        <v>63.23059380498552</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788748</v>
+        <v>8.875695800788634</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.18608130266733</v>
+        <v>60.18608130266728</v>
       </c>
       <c r="C17" t="n">
-        <v>48.19739826034908</v>
+        <v>48.19739826034902</v>
       </c>
       <c r="D17" t="n">
-        <v>39.17870230487705</v>
+        <v>39.17870230487699</v>
       </c>
       <c r="E17" t="n">
-        <v>60.92083987478259</v>
+        <v>60.92083987478253</v>
       </c>
       <c r="F17" t="n">
-        <v>80.09265596275975</v>
+        <v>80.09265596275969</v>
       </c>
       <c r="G17" t="n">
-        <v>81.55736574630227</v>
+        <v>81.5573657463022</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542845902</v>
+        <v>3.692458542846396</v>
       </c>
       <c r="W17" t="n">
-        <v>28.99255802080336</v>
+        <v>28.9925580208033</v>
       </c>
       <c r="X17" t="n">
-        <v>48.29281625354997</v>
+        <v>48.29281625354992</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.68941404974873</v>
+        <v>59.68941404974868</v>
       </c>
     </row>
     <row r="18">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.692458542846452</v>
+        <v>3.692458542846764</v>
       </c>
       <c r="W20" t="n">
         <v>28.99255802080336</v>
@@ -2330,7 +2330,7 @@
         <v>80.09265596275975</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630227</v>
+        <v>81.55736574630225</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.9748428097534</v>
+        <v>180.9748428097533</v>
       </c>
       <c r="C26" t="n">
         <v>168.9861597674351</v>
@@ -2561,7 +2561,7 @@
         <v>159.9674638119631</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7096013818687</v>
+        <v>181.7096013818686</v>
       </c>
       <c r="F26" t="n">
         <v>200.8814174698458</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970365</v>
+        <v>10.9359823497036</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696094995</v>
+        <v>43.17073696094989</v>
       </c>
       <c r="V26" t="n">
         <v>124.4812200499325</v>
@@ -2621,7 +2621,7 @@
         <v>169.081577760636</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.4781755568348</v>
+        <v>180.4781755568347</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697960825</v>
+        <v>7.165089697960768</v>
       </c>
       <c r="V27" t="n">
-        <v>16.98340501306382</v>
+        <v>16.98340501306376</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593751</v>
+        <v>29.77444876593745</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645803</v>
+        <v>20.82086462645798</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17861149147662</v>
+        <v>75.17861149147656</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407606</v>
+        <v>48.99969008407601</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468932</v>
+        <v>74.16657615468927</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049244</v>
+        <v>19.81167815049238</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656013</v>
+        <v>10.68654590656007</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.9748428097534</v>
+        <v>180.9748428097535</v>
       </c>
       <c r="C29" t="n">
-        <v>168.9861597674351</v>
+        <v>168.9861597674352</v>
       </c>
       <c r="D29" t="n">
-        <v>159.9674638119631</v>
+        <v>159.9674638119632</v>
       </c>
       <c r="E29" t="n">
         <v>181.7096013818687</v>
       </c>
       <c r="F29" t="n">
-        <v>200.8814174698458</v>
+        <v>200.8814174698459</v>
       </c>
       <c r="G29" t="n">
-        <v>202.3461272533883</v>
+        <v>202.3461272533884</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5661795618046</v>
+        <v>115.5661795618047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970365</v>
+        <v>10.93598234970374</v>
       </c>
       <c r="U29" t="n">
-        <v>43.17073696094995</v>
+        <v>43.17073696095003</v>
       </c>
       <c r="V29" t="n">
-        <v>124.4812200499325</v>
+        <v>124.4812200499326</v>
       </c>
       <c r="W29" t="n">
-        <v>149.7813195278894</v>
+        <v>149.7813195278895</v>
       </c>
       <c r="X29" t="n">
-        <v>169.081577760636</v>
+        <v>169.0815777606361</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4781755568348</v>
+        <v>180.4781755568349</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697960825</v>
+        <v>7.16508969796091</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306382</v>
+        <v>16.9834050130639</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593751</v>
+        <v>29.77444876593759</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.82086462645803</v>
+        <v>20.82086462645812</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147662</v>
+        <v>75.1786114914767</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407606</v>
+        <v>48.99969008407615</v>
       </c>
       <c r="W31" t="n">
-        <v>74.16657615468932</v>
+        <v>74.16657615468941</v>
       </c>
       <c r="X31" t="n">
-        <v>19.81167815049244</v>
+        <v>19.81167815049253</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.68654590656013</v>
+        <v>10.68654590656021</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097534</v>
       </c>
       <c r="C32" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674351</v>
       </c>
       <c r="D32" t="n">
-        <v>159.9674638119632</v>
+        <v>159.9674638119631</v>
       </c>
       <c r="E32" t="n">
-        <v>181.7096013818688</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F32" t="n">
-        <v>200.8814174698459</v>
+        <v>200.8814174698458</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3461272533884</v>
+        <v>202.3461272533883</v>
       </c>
       <c r="H32" t="n">
-        <v>115.5661795618047</v>
+        <v>115.5661795618046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970375</v>
+        <v>10.93598234970366</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095005</v>
+        <v>43.17073696094994</v>
       </c>
       <c r="V32" t="n">
-        <v>124.4812200499326</v>
+        <v>124.4812200499325</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7813195278895</v>
+        <v>149.7813195278894</v>
       </c>
       <c r="X32" t="n">
-        <v>169.0815777606362</v>
+        <v>169.081577760636</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568348</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697960939</v>
+        <v>7.165089697960825</v>
       </c>
       <c r="V33" t="n">
-        <v>16.98340501306393</v>
+        <v>16.98340501306382</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593762</v>
+        <v>29.77444876593751</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645815</v>
+        <v>20.82086462645803</v>
       </c>
       <c r="U34" t="n">
-        <v>75.17861149147673</v>
+        <v>75.17861149147662</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407618</v>
+        <v>48.99969008407606</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468944</v>
+        <v>74.16657615468932</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049255</v>
+        <v>19.81167815049244</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656024</v>
+        <v>10.68654590656013</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C35" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700201</v>
       </c>
       <c r="D35" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0542423844535</v>
+        <v>140.0542423844536</v>
       </c>
       <c r="F35" t="n">
         <v>159.2260584724307</v>
@@ -3281,7 +3281,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H35" t="n">
-        <v>73.9108205643895</v>
+        <v>73.91082056438955</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534803</v>
+        <v>1.51537796353486</v>
       </c>
       <c r="V35" t="n">
-        <v>82.82586105251738</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W35" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X35" t="n">
-        <v>127.4262187632209</v>
+        <v>127.426218763221</v>
       </c>
       <c r="Y35" t="n">
         <v>138.8228165594197</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406148</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086660929</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W37" t="n">
-        <v>32.51121715727419</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C38" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700201</v>
       </c>
       <c r="D38" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E38" t="n">
-        <v>140.0542423844535</v>
+        <v>140.0542423844536</v>
       </c>
       <c r="F38" t="n">
         <v>159.2260584724307</v>
@@ -3518,7 +3518,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438948</v>
+        <v>73.91082056438955</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534813</v>
+        <v>1.51537796353486</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251738</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W38" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X38" t="n">
-        <v>127.4262187632209</v>
+        <v>127.426218763221</v>
       </c>
       <c r="Y38" t="n">
         <v>138.8228165594197</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406148</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086660929</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727419</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.3194838123382</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C41" t="n">
         <v>127.33080077002</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438945</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.515377963534785</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251735</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W41" t="n">
         <v>108.1259605304743</v>
@@ -3806,7 +3806,7 @@
         <v>127.4262187632209</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.8228165594196</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="42">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406145</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660901</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727416</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.3194838123382</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C44" t="n">
         <v>127.33080077002</v>
@@ -3992,7 +3992,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056438947</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.515377963534785</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251735</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W44" t="n">
         <v>108.1259605304743</v>
@@ -4043,7 +4043,7 @@
         <v>127.4262187632209</v>
       </c>
       <c r="Y44" t="n">
-        <v>138.8228165594196</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="45">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406145</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086660901</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727416</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.3332851453757</v>
+        <v>393.5377427499357</v>
       </c>
       <c r="C11" t="n">
-        <v>10.52979365736315</v>
+        <v>382.1207417848173</v>
       </c>
       <c r="D11" t="n">
-        <v>10.52979365736315</v>
+        <v>382.1207417848173</v>
       </c>
       <c r="E11" t="n">
-        <v>10.52979365736315</v>
+        <v>249.1688016665958</v>
       </c>
       <c r="F11" t="n">
-        <v>10.52979365736315</v>
+        <v>249.1688016665958</v>
       </c>
       <c r="G11" t="n">
-        <v>10.52979365736315</v>
+        <v>116.2168615483743</v>
       </c>
       <c r="H11" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I11" t="n">
-        <v>10.52979365736315</v>
+        <v>76.89870416677084</v>
       </c>
       <c r="J11" t="n">
-        <v>10.52979365736315</v>
+        <v>76.89870416677084</v>
       </c>
       <c r="K11" t="n">
-        <v>110.3649466358978</v>
+        <v>76.89870416677084</v>
       </c>
       <c r="L11" t="n">
-        <v>110.3649466358978</v>
+        <v>104.1580967183967</v>
       </c>
       <c r="M11" t="n">
-        <v>110.3649466358978</v>
+        <v>104.1580967183967</v>
       </c>
       <c r="N11" t="n">
-        <v>110.3649466358978</v>
+        <v>220.2575006123958</v>
       </c>
       <c r="O11" t="n">
-        <v>221.3006022506402</v>
+        <v>220.2575006123958</v>
       </c>
       <c r="P11" t="n">
-        <v>319.8716125650083</v>
+        <v>318.8285109267638</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.9679878302221</v>
+        <v>407.9679878302219</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619458</v>
+        <v>481.5587050619457</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681574</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681574</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="U11" t="n">
-        <v>493.9293246749793</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="V11" t="n">
-        <v>379.2371653818188</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="W11" t="n">
-        <v>379.2371653818188</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="X11" t="n">
-        <v>246.2852252635973</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.3332851453757</v>
+        <v>526.4896828681572</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="D12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="E12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="F12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="G12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="H12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="J12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="K12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="L12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="M12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="N12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="O12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="P12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="R12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="S12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315491</v>
+        <v>29.55854761315493</v>
       </c>
       <c r="W12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C13" t="n">
-        <v>62.15278313901733</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D13" t="n">
-        <v>62.15278313901733</v>
+        <v>78.36763238541469</v>
       </c>
       <c r="E13" t="n">
-        <v>131.0323495098473</v>
+        <v>128.2715821276744</v>
       </c>
       <c r="F13" t="n">
-        <v>144.1754605730031</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="G13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="H13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="I13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="J13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="K13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="L13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="M13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="N13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="O13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="P13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411205</v>
+        <v>186.7041638411206</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534711</v>
+        <v>121.8126192534712</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279187</v>
+        <v>83.36442962279193</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108919</v>
+        <v>19.49514295108921</v>
       </c>
       <c r="X13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.4336738938063</v>
+        <v>382.1207417848172</v>
       </c>
       <c r="C14" t="n">
-        <v>143.4817337755847</v>
+        <v>382.1207417848172</v>
       </c>
       <c r="D14" t="n">
-        <v>10.52979365736315</v>
+        <v>249.1688016665957</v>
       </c>
       <c r="E14" t="n">
-        <v>10.52979365736315</v>
+        <v>249.1688016665957</v>
       </c>
       <c r="F14" t="n">
-        <v>10.52979365736315</v>
+        <v>249.1688016665957</v>
       </c>
       <c r="G14" t="n">
-        <v>10.52979365736315</v>
+        <v>116.2168615483742</v>
       </c>
       <c r="H14" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I14" t="n">
-        <v>76.89870416677091</v>
+        <v>76.89870416677101</v>
       </c>
       <c r="J14" t="n">
-        <v>188.5041073150231</v>
+        <v>76.89870416677101</v>
       </c>
       <c r="K14" t="n">
-        <v>288.3392602935578</v>
+        <v>176.7338571453057</v>
       </c>
       <c r="L14" t="n">
-        <v>288.3392602935578</v>
+        <v>278.1554130405419</v>
       </c>
       <c r="M14" t="n">
-        <v>288.3392602935578</v>
+        <v>278.1554130405419</v>
       </c>
       <c r="N14" t="n">
-        <v>288.3392602935578</v>
+        <v>278.1554130405419</v>
       </c>
       <c r="O14" t="n">
-        <v>318.8285109267638</v>
+        <v>389.0910686552844</v>
       </c>
       <c r="P14" t="n">
-        <v>318.8285109267638</v>
+        <v>437.3502059646989</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.9679878302221</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619458</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681574</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681574</v>
+        <v>526.4896828681573</v>
       </c>
       <c r="U14" t="n">
-        <v>526.4896828681574</v>
+        <v>493.9293246749794</v>
       </c>
       <c r="V14" t="n">
-        <v>526.4896828681574</v>
+        <v>493.9293246749794</v>
       </c>
       <c r="W14" t="n">
-        <v>526.4896828681574</v>
+        <v>382.1207417848172</v>
       </c>
       <c r="X14" t="n">
-        <v>526.4896828681574</v>
+        <v>382.1207417848172</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.5377427499358</v>
+        <v>382.1207417848172</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H15" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="J15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="K15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392268</v>
+        <v>35.66705535392245</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315488</v>
+        <v>29.55854761315476</v>
       </c>
       <c r="W15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52979365736315</v>
+        <v>48.49077803596394</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52979365736315</v>
+        <v>48.49077803596394</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52979365736315</v>
+        <v>116.3286167640157</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52979365736315</v>
+        <v>185.2081831348457</v>
       </c>
       <c r="F16" t="n">
-        <v>10.52979365736315</v>
+        <v>196.688893413599</v>
       </c>
       <c r="G16" t="n">
-        <v>10.52979365736315</v>
+        <v>196.688893413599</v>
       </c>
       <c r="H16" t="n">
-        <v>10.52979365736315</v>
+        <v>196.688893413599</v>
       </c>
       <c r="I16" t="n">
-        <v>10.52979365736315</v>
+        <v>196.688893413599</v>
       </c>
       <c r="J16" t="n">
-        <v>10.52979365736315</v>
+        <v>196.688893413599</v>
       </c>
       <c r="K16" t="n">
-        <v>10.52979365736315</v>
+        <v>196.688893413599</v>
       </c>
       <c r="L16" t="n">
-        <v>140.8359901672321</v>
+        <v>196.688893413599</v>
       </c>
       <c r="M16" t="n">
-        <v>140.8359901672321</v>
+        <v>196.688893413599</v>
       </c>
       <c r="N16" t="n">
-        <v>140.8359901672321</v>
+        <v>196.688893413599</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8359901672321</v>
+        <v>196.688893413599</v>
       </c>
       <c r="P16" t="n">
-        <v>184.6560115448112</v>
+        <v>196.688893413599</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.6560115448112</v>
+        <v>196.688893413599</v>
       </c>
       <c r="R16" t="n">
-        <v>184.6560115448112</v>
+        <v>196.688893413599</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135995</v>
+        <v>196.688893413599</v>
       </c>
       <c r="T16" t="n">
-        <v>186.7041638411204</v>
+        <v>186.70416384112</v>
       </c>
       <c r="U16" t="n">
-        <v>121.812619253471</v>
+        <v>121.8126192534706</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279182</v>
+        <v>83.36442962279159</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108916</v>
+        <v>19.49514295108904</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018791</v>
+        <v>323.6075332018787</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348597</v>
+        <v>274.9232925348593</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622568</v>
+        <v>235.3488457622563</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685372</v>
+        <v>173.8126438685366</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888059</v>
+        <v>92.91097117888052</v>
       </c>
       <c r="G17" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H17" t="n">
-        <v>10.52979365736315</v>
+        <v>15.70014978319182</v>
       </c>
       <c r="I17" t="n">
-        <v>135.5710933385505</v>
+        <v>15.70014978319182</v>
       </c>
       <c r="J17" t="n">
-        <v>135.5710933385505</v>
+        <v>15.70014978319182</v>
       </c>
       <c r="K17" t="n">
-        <v>135.5710933385505</v>
+        <v>15.70014978319182</v>
       </c>
       <c r="L17" t="n">
-        <v>135.5710933385505</v>
+        <v>146.0063462930607</v>
       </c>
       <c r="M17" t="n">
-        <v>135.5710933385505</v>
+        <v>146.0063462930607</v>
       </c>
       <c r="N17" t="n">
-        <v>265.8772898484194</v>
+        <v>146.0063462930607</v>
       </c>
       <c r="O17" t="n">
-        <v>265.8772898484194</v>
+        <v>276.3125428029296</v>
       </c>
       <c r="P17" t="n">
-        <v>265.8772898484194</v>
+        <v>276.3125428029296</v>
       </c>
       <c r="Q17" t="n">
-        <v>396.1834863582884</v>
+        <v>276.3125428029296</v>
       </c>
       <c r="R17" t="n">
-        <v>396.1834863582884</v>
+        <v>276.3125428029296</v>
       </c>
       <c r="S17" t="n">
-        <v>526.4896828681574</v>
+        <v>406.6187393127985</v>
       </c>
       <c r="T17" t="n">
-        <v>526.4896828681574</v>
+        <v>515.3729906786072</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681574</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642727</v>
+        <v>522.7599267642719</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220469</v>
+        <v>493.4745146220463</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437136</v>
+        <v>444.693892143713</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197249</v>
+        <v>384.4015547197244</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="J18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="K18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="L18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="M18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="N18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="O18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="P18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="R18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="S18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="T18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="U18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="V18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="W18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="J19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="K19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="L19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="M19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="N19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="P19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="R19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="S19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="T19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="U19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="V19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="W19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018785</v>
+        <v>323.6075332018786</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348592</v>
+        <v>274.9232925348594</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622561</v>
+        <v>235.3488457622563</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685363</v>
+        <v>173.8126438685365</v>
       </c>
       <c r="F20" t="n">
         <v>92.91097117888057</v>
       </c>
       <c r="G20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="J20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="K20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="L20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="M20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="N20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="O20" t="n">
-        <v>140.8359901672321</v>
+        <v>140.835990167232</v>
       </c>
       <c r="P20" t="n">
-        <v>265.8772898484194</v>
+        <v>271.1421866771009</v>
       </c>
       <c r="Q20" t="n">
-        <v>396.1834863582884</v>
+        <v>271.1421866771009</v>
       </c>
       <c r="R20" t="n">
-        <v>526.4896828681574</v>
+        <v>401.4483831869699</v>
       </c>
       <c r="S20" t="n">
-        <v>526.4896828681574</v>
+        <v>449.6478385674824</v>
       </c>
       <c r="T20" t="n">
-        <v>526.4896828681574</v>
+        <v>449.6478385674824</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681574</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="V20" t="n">
         <v>522.759926764272</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220463</v>
+        <v>493.4745146220464</v>
       </c>
       <c r="X20" t="n">
         <v>444.693892143713</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="J21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="K21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="L21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="M21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="N21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="O21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="P21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="R21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="S21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="T21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="U21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="V21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="W21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="J22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="K22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="L22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="M22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="N22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="O22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="P22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="R22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="S22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="T22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="U22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="V22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="W22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018791</v>
+        <v>323.6075332018784</v>
       </c>
       <c r="C23" t="n">
-        <v>274.9232925348598</v>
+        <v>274.9232925348591</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622567</v>
+        <v>235.348845762256</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8126438685369</v>
+        <v>173.8126438685362</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888059</v>
+        <v>92.91097117888057</v>
       </c>
       <c r="G23" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H23" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="J23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="K23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="L23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="M23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="N23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="O23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="P23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.28119418193643</v>
+        <v>80.28119418193597</v>
       </c>
       <c r="R23" t="n">
-        <v>210.5873906918054</v>
+        <v>210.5873906918049</v>
       </c>
       <c r="S23" t="n">
-        <v>340.8935872016743</v>
+        <v>340.8935872016738</v>
       </c>
       <c r="T23" t="n">
-        <v>449.6478385674829</v>
+        <v>449.6478385674824</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681577</v>
+        <v>526.4896828681572</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642724</v>
+        <v>522.7599267642718</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220468</v>
+        <v>493.4745146220462</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437135</v>
+        <v>444.6938921437129</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197249</v>
+        <v>384.4015547197242</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="J24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="K24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="L24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="M24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="N24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="O24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="P24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="R24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="S24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="T24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="U24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="V24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="W24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="C25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="D25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="E25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="F25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="G25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="H25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="I25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="J25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="K25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="L25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="M25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="N25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="O25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="P25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="R25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="S25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="T25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="U25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="V25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="W25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="X25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736314</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367161</v>
+        <v>1078.782752367162</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929844</v>
+        <v>908.0896616929848</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132236</v>
+        <v>746.506364913224</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123462</v>
+        <v>562.9613130123466</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155323</v>
+        <v>360.0507903155327</v>
       </c>
       <c r="G26" t="n">
-        <v>155.660762786857</v>
+        <v>155.6607627868569</v>
       </c>
       <c r="H26" t="n">
         <v>38.92724807796343</v>
       </c>
       <c r="I26" t="n">
-        <v>38.92724807796343</v>
+        <v>94.46953606116459</v>
       </c>
       <c r="J26" t="n">
-        <v>357.3333724264679</v>
+        <v>254.037569513155</v>
       </c>
       <c r="K26" t="n">
-        <v>446.3419028787959</v>
+        <v>254.037569513155</v>
       </c>
       <c r="L26" t="n">
-        <v>928.0665978435933</v>
+        <v>344.6325028821845</v>
       </c>
       <c r="M26" t="n">
-        <v>1393.47786491438</v>
+        <v>344.6325028821845</v>
       </c>
       <c r="N26" t="n">
-        <v>1498.750646282172</v>
+        <v>449.9052842499771</v>
       </c>
       <c r="O26" t="n">
-        <v>1598.859679370708</v>
+        <v>931.6299792147744</v>
       </c>
       <c r="P26" t="n">
-        <v>1686.604067158869</v>
+        <v>1413.354674179572</v>
       </c>
       <c r="Q26" t="n">
         <v>1764.916921536121</v>
@@ -6260,7 +6260,7 @@
         <v>1891.709152069228</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958185</v>
+        <v>1765.970545958186</v>
       </c>
       <c r="W26" t="n">
         <v>1614.676283808802</v>
@@ -6291,55 +6291,55 @@
         <v>38.92724807796343</v>
       </c>
       <c r="F27" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G27" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H27" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I27" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J27" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K27" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="M27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="N27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="O27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166257</v>
+        <v>93.3948677516624</v>
       </c>
       <c r="U27" t="n">
-        <v>86.157403410288</v>
+        <v>86.15740341028788</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163768</v>
+        <v>69.00244885163762</v>
       </c>
       <c r="W27" t="n">
         <v>38.92724807796343</v>
@@ -6385,46 +6385,46 @@
         <v>38.92724807796343</v>
       </c>
       <c r="K28" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L28" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M28" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N28" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="O28" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="P28" t="n">
-        <v>96.70622891109242</v>
+        <v>221.2664822235791</v>
       </c>
       <c r="Q28" t="n">
-        <v>283.3963915279535</v>
+        <v>221.2664822235791</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383196</v>
+        <v>291.1130727383193</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383196</v>
+        <v>291.1130727383193</v>
       </c>
       <c r="T28" t="n">
-        <v>270.081896347958</v>
+        <v>270.0818963479577</v>
       </c>
       <c r="U28" t="n">
-        <v>194.143904942426</v>
+        <v>194.1439049424258</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6492684938643</v>
+        <v>144.6492684938642</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427916</v>
+        <v>69.73353500427905</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267063</v>
+        <v>49.72173889267057</v>
       </c>
       <c r="Y28" t="n">
         <v>38.92724807796343</v>
@@ -6446,43 +6446,43 @@
         <v>746.5063649132235</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123461</v>
+        <v>562.961313012346</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0507903155321</v>
+        <v>360.0507903155319</v>
       </c>
       <c r="G29" t="n">
-        <v>155.660762786857</v>
+        <v>155.6607627868571</v>
       </c>
       <c r="H29" t="n">
         <v>38.92724807796343</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116455</v>
+        <v>94.46953606116445</v>
       </c>
       <c r="J29" t="n">
-        <v>412.875660409669</v>
+        <v>412.8756604096687</v>
       </c>
       <c r="K29" t="n">
-        <v>412.875660409669</v>
+        <v>599.2547430255489</v>
       </c>
       <c r="L29" t="n">
-        <v>503.4705937786986</v>
+        <v>1080.979437990346</v>
       </c>
       <c r="M29" t="n">
-        <v>606.6747789911606</v>
+        <v>1184.183623202808</v>
       </c>
       <c r="N29" t="n">
-        <v>711.9475603589532</v>
+        <v>1289.456404570601</v>
       </c>
       <c r="O29" t="n">
-        <v>1193.672255323751</v>
+        <v>1289.456404570601</v>
       </c>
       <c r="P29" t="n">
-        <v>1413.354674179572</v>
+        <v>1771.181099535398</v>
       </c>
       <c r="Q29" t="n">
-        <v>1764.916921536121</v>
+        <v>1849.493953912649</v>
       </c>
       <c r="R29" t="n">
         <v>1912.258048618166</v>
@@ -6506,7 +6506,7 @@
         <v>1443.886811323311</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.585623892165</v>
+        <v>1261.585623892164</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H30" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I30" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J30" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K30" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="M30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="N30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="O30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="P30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39486775166257</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="U30" t="n">
-        <v>86.157403410288</v>
+        <v>86.15740341028817</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163768</v>
+        <v>69.00244885163777</v>
       </c>
       <c r="W30" t="n">
         <v>38.92724807796343</v>
       </c>
       <c r="X30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y30" t="n">
-        <v>51.9857867193446</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="31">
@@ -6622,46 +6622,46 @@
         <v>38.92724807796343</v>
       </c>
       <c r="K31" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L31" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M31" t="n">
-        <v>96.70622891109242</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N31" t="n">
-        <v>96.70622891109242</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="O31" t="n">
-        <v>224.5806487197535</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="P31" t="n">
-        <v>291.1130727383196</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383196</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383196</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383196</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="T31" t="n">
-        <v>270.081896347958</v>
+        <v>270.0818963479584</v>
       </c>
       <c r="U31" t="n">
-        <v>194.143904942426</v>
+        <v>194.1439049424264</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6492684938643</v>
+        <v>144.6492684938646</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427916</v>
+        <v>69.73353500427933</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267063</v>
+        <v>49.72173889267071</v>
       </c>
       <c r="Y31" t="n">
         <v>38.92724807796343</v>
@@ -6677,52 +6677,52 @@
         <v>1078.782752367161</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929841</v>
+        <v>908.0896616929837</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132233</v>
+        <v>746.506364913223</v>
       </c>
       <c r="E32" t="n">
         <v>562.9613130123457</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0507903155317</v>
+        <v>360.0507903155321</v>
       </c>
       <c r="G32" t="n">
-        <v>155.6607627868571</v>
+        <v>155.660762786857</v>
       </c>
       <c r="H32" t="n">
         <v>38.92724807796343</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116443</v>
+        <v>94.46953606116453</v>
       </c>
       <c r="J32" t="n">
-        <v>412.8756604096688</v>
+        <v>195.24831668321</v>
       </c>
       <c r="K32" t="n">
-        <v>894.6003553744662</v>
+        <v>284.256847135538</v>
       </c>
       <c r="L32" t="n">
-        <v>1162.387444491524</v>
+        <v>374.8517805045674</v>
       </c>
       <c r="M32" t="n">
-        <v>1162.387444491524</v>
+        <v>849.5429046223501</v>
       </c>
       <c r="N32" t="n">
-        <v>1267.660225859317</v>
+        <v>954.8156859901426</v>
       </c>
       <c r="O32" t="n">
-        <v>1367.769258947852</v>
+        <v>1325.61028639141</v>
       </c>
       <c r="P32" t="n">
-        <v>1849.49395391265</v>
+        <v>1413.354674179572</v>
       </c>
       <c r="Q32" t="n">
-        <v>1849.49395391265</v>
+        <v>1764.916921536121</v>
       </c>
       <c r="R32" t="n">
-        <v>1912.258048618167</v>
+        <v>1912.258048618166</v>
       </c>
       <c r="S32" t="n">
         <v>1946.362403898171</v>
@@ -6731,19 +6731,19 @@
         <v>1935.315957080289</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.709152069229</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V32" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958185</v>
       </c>
       <c r="W32" t="n">
-        <v>1614.676283808802</v>
+        <v>1614.676283808801</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.886811323311</v>
+        <v>1443.88681132331</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.585623892165</v>
+        <v>1261.585623892164</v>
       </c>
     </row>
     <row r="33">
@@ -6795,25 +6795,25 @@
         <v>38.92724807796343</v>
       </c>
       <c r="P33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="R33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166291</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166291</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028823</v>
+        <v>86.157403410288</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163779</v>
+        <v>69.00244885163768</v>
       </c>
       <c r="W33" t="n">
         <v>38.92724807796343</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.06160993035735</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C34" t="n">
-        <v>106.8579768858048</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D34" t="n">
-        <v>163.8691930876496</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E34" t="n">
-        <v>221.9221369322728</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F34" t="n">
-        <v>279.5128256919915</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M34" t="n">
-        <v>291.1130727383203</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383203</v>
+        <v>175.0986608499855</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383203</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383203</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383203</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383203</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383203</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="T34" t="n">
-        <v>270.0818963479585</v>
+        <v>270.081896347958</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424265</v>
+        <v>194.143904942426</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6492684938647</v>
+        <v>144.6492684938643</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427939</v>
+        <v>69.73353500427916</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267074</v>
+        <v>49.72173889267063</v>
       </c>
       <c r="Y34" t="n">
         <v>38.92724807796343</v>
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133425</v>
+        <v>815.796237513342</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385748</v>
+        <v>687.1792670385742</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582234</v>
+        <v>567.6720904582226</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567543</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593495</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300847</v>
       </c>
       <c r="H35" t="n">
         <v>28.39745442060028</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1785478112424</v>
+        <v>125.1785478112423</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407289</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004979</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769683</v>
+        <v>529.277208476968</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968713</v>
+        <v>673.7201990968708</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721049</v>
+        <v>820.2317858721045</v>
       </c>
       <c r="O35" t="n">
-        <v>961.5796243680816</v>
+        <v>961.5796243680811</v>
       </c>
       <c r="P35" t="n">
-        <v>1090.562817563684</v>
+        <v>1090.562817563683</v>
       </c>
       <c r="Q35" t="n">
         <v>1210.114477348376</v>
@@ -6980,7 +6980,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389365</v>
+        <v>956.5229888389364</v>
       </c>
     </row>
     <row r="36">
@@ -7087,49 +7087,49 @@
         <v>28.39745442060028</v>
       </c>
       <c r="H37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="I37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="J37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992869</v>
+        <v>68.6555839599288</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077623</v>
+        <v>61.23706771077629</v>
       </c>
       <c r="W37" t="n">
         <v>28.39745442060028</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133427</v>
+        <v>815.7962375133419</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385749</v>
+        <v>687.1792670385742</v>
       </c>
       <c r="D38" t="n">
-        <v>567.6720904582235</v>
+        <v>567.6720904582226</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567543</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593495</v>
       </c>
       <c r="G38" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300847</v>
       </c>
       <c r="H38" t="n">
         <v>28.39745442060028</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1785478112424</v>
+        <v>125.1785478112423</v>
       </c>
       <c r="J38" t="n">
-        <v>267.1961338407289</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769683</v>
+        <v>529.277208476968</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968713</v>
+        <v>673.7201990968708</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721049</v>
+        <v>820.2317858721045</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680816</v>
+        <v>961.5796243680811</v>
       </c>
       <c r="P38" t="n">
-        <v>1090.562817563684</v>
+        <v>1090.562817563683</v>
       </c>
       <c r="Q38" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348376</v>
       </c>
       <c r="R38" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S38" t="n">
         <v>1389.46053814878</v>
       </c>
       <c r="T38" t="n">
-        <v>1419.872721030015</v>
+        <v>1419.872721030014</v>
       </c>
       <c r="U38" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.67955030673</v>
+        <v>1334.679550306729</v>
       </c>
       <c r="W38" t="n">
-        <v>1225.461408356756</v>
+        <v>1225.461408356755</v>
       </c>
       <c r="X38" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.522988838937</v>
+        <v>956.522988838936</v>
       </c>
     </row>
     <row r="39">
@@ -7318,55 +7318,55 @@
         <v>28.39745442060028</v>
       </c>
       <c r="F40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="G40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="H40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="I40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="J40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="L40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="M40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="N40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060028</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992869</v>
+        <v>68.6555839599288</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077623</v>
+        <v>61.23706771077629</v>
       </c>
       <c r="W40" t="n">
         <v>28.39745442060028</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133422</v>
+        <v>815.7962375133425</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385746</v>
+        <v>687.1792670385747</v>
       </c>
       <c r="D41" t="n">
-        <v>567.6720904582231</v>
+        <v>567.6720904582232</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567549</v>
+        <v>426.203158756755</v>
       </c>
       <c r="F41" t="n">
         <v>265.3687562593502</v>
@@ -7406,25 +7406,25 @@
         <v>28.39745442060028</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1785478112425</v>
+        <v>125.1785478112417</v>
       </c>
       <c r="J41" t="n">
-        <v>267.196133840729</v>
+        <v>267.1961338407282</v>
       </c>
       <c r="K41" t="n">
-        <v>397.443469700498</v>
+        <v>397.4434697004971</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769686</v>
+        <v>529.2772084769676</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968715</v>
+        <v>673.7201990968705</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721035</v>
+        <v>820.2317858721041</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680804</v>
+        <v>961.5796243680808</v>
       </c>
       <c r="P41" t="n">
         <v>1090.562817563683</v>
@@ -7448,13 +7448,13 @@
         <v>1334.679550306729</v>
       </c>
       <c r="W41" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X41" t="n">
         <v>1096.748056070674</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389365</v>
+        <v>956.5229888389367</v>
       </c>
     </row>
     <row r="42">
@@ -7582,28 +7582,28 @@
         <v>28.39745442060028</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="P43" t="n">
-        <v>60.0723904160286</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.0723904160286</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="R43" t="n">
-        <v>60.0723904160286</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992863</v>
+        <v>68.65558395992869</v>
       </c>
       <c r="V43" t="n">
-        <v>61.2370677107762</v>
+        <v>61.23706771077623</v>
       </c>
       <c r="W43" t="n">
         <v>28.39745442060028</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133424</v>
+        <v>815.7962375133432</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385746</v>
+        <v>687.1792670385755</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582235</v>
+        <v>567.6720904582241</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567551</v>
+        <v>426.2031587567558</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593511</v>
       </c>
       <c r="G44" t="n">
         <v>103.0548489300846</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112424</v>
       </c>
       <c r="J44" t="n">
-        <v>267.196133840729</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K44" t="n">
-        <v>397.443469700498</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L44" t="n">
-        <v>529.2772084769686</v>
+        <v>529.2772084769682</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968715</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N44" t="n">
-        <v>820.2317858721051</v>
+        <v>820.2317858721048</v>
       </c>
       <c r="O44" t="n">
-        <v>961.5796243680819</v>
+        <v>961.5796243680815</v>
       </c>
       <c r="P44" t="n">
         <v>1090.562817563684</v>
       </c>
       <c r="Q44" t="n">
-        <v>1210.114477348375</v>
+        <v>1210.114477348376</v>
       </c>
       <c r="R44" t="n">
-        <v>1314.117377461333</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S44" t="n">
         <v>1389.46053814878</v>
       </c>
       <c r="T44" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U44" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W44" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X44" t="n">
         <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389365</v>
+        <v>956.5229888389374</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="J46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="L46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="N46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="O46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="P46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="R46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="S46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65558395992863</v>
+        <v>68.65558395992871</v>
       </c>
       <c r="V46" t="n">
-        <v>61.2370677107762</v>
+        <v>61.23706771077624</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
   </sheetData>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236959</v>
+        <v>59.38308366661093</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>459.2031981101641</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>441.5879317892285</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056946</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>138.7668962480483</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>61.53658713672075</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>53.47613667665257</v>
+        <v>98.3540930944973</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>464.9249845140224</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>385.4703655315774</v>
+        <v>108.0080258701202</v>
       </c>
       <c r="P29" t="n">
-        <v>133.270738452182</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056946</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517107</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>138.7668962480483</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L31" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M31" t="n">
-        <v>79.9306797039667</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>71.58137972518441</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O31" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>153.6882725638977</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>396.68299445704</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>178.9819755030591</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>101.1861989195617</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>273.4197649623558</v>
       </c>
       <c r="P32" t="n">
-        <v>397.9599062390263</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>130.0243680027304</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10431,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>115.9991670085491</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10519,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>114.5752258432385</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.0388604600497</v>
+        <v>38.41643974301047</v>
       </c>
       <c r="C11" t="n">
-        <v>56.27472084459903</v>
+        <v>146.7473464622643</v>
       </c>
       <c r="D11" t="n">
-        <v>149.0314814622594</v>
+        <v>149.0314814622595</v>
       </c>
       <c r="E11" t="n">
-        <v>170.773619032165</v>
+        <v>39.15119831512573</v>
       </c>
       <c r="F11" t="n">
         <v>189.9454351201422</v>
       </c>
       <c r="G11" t="n">
-        <v>191.4101449036847</v>
+        <v>59.78772418664539</v>
       </c>
       <c r="H11" t="n">
-        <v>104.6301972121009</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.23475461124631</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W11" t="n">
         <v>138.8453371781858</v>
       </c>
       <c r="X11" t="n">
-        <v>26.52317469389303</v>
+        <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.91977249009179</v>
+        <v>169.5421932071312</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.10583229248152</v>
+        <v>170.0388604600496</v>
       </c>
       <c r="C14" t="n">
-        <v>26.4277567006921</v>
+        <v>158.0501774177313</v>
       </c>
       <c r="D14" t="n">
-        <v>17.40906074522007</v>
+        <v>17.40906074522002</v>
       </c>
       <c r="E14" t="n">
-        <v>170.773619032165</v>
+        <v>170.7736190321648</v>
       </c>
       <c r="F14" t="n">
-        <v>189.9454351201421</v>
+        <v>189.945435120142</v>
       </c>
       <c r="G14" t="n">
-        <v>191.4101449036846</v>
+        <v>59.78772418664524</v>
       </c>
       <c r="H14" t="n">
-        <v>104.6301972121009</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.23475461124625</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.5452377002288</v>
+        <v>113.5452377002287</v>
       </c>
       <c r="W14" t="n">
-        <v>138.8453371781857</v>
+        <v>28.15484011692506</v>
       </c>
       <c r="X14" t="n">
-        <v>158.1455954109323</v>
+        <v>158.1455954109322</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.91977249009176</v>
+        <v>169.542193207131</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>5.502265310042276e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-3.113065361048939e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>702751.1380257554</v>
+        <v>702751.1380257553</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806005.2635188906</v>
+        <v>806005.2635188908</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876882.1504004347</v>
+        <v>876882.1504004349</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876882.150400435</v>
+        <v>876882.1504004347</v>
       </c>
     </row>
     <row r="13">
@@ -26317,22 +26317,22 @@
         <v>536113.642055113</v>
       </c>
       <c r="D2" t="n">
-        <v>536113.6420551129</v>
+        <v>536113.6420551131</v>
       </c>
       <c r="E2" t="n">
-        <v>468500.758683837</v>
+        <v>468500.7586838371</v>
       </c>
       <c r="F2" t="n">
-        <v>468500.758683837</v>
+        <v>468500.7586838372</v>
       </c>
       <c r="G2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="H2" t="n">
         <v>537336.8423459273</v>
       </c>
       <c r="I2" t="n">
-        <v>537336.8423459274</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="J2" t="n">
         <v>537336.8423459277</v>
@@ -26341,19 +26341,19 @@
         <v>537336.8423459277</v>
       </c>
       <c r="L2" t="n">
-        <v>537336.8423459276</v>
+        <v>537336.8423459277</v>
       </c>
       <c r="M2" t="n">
-        <v>537336.8423459276</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="N2" t="n">
+        <v>537336.8423459273</v>
+      </c>
+      <c r="O2" t="n">
         <v>537336.8423459277</v>
       </c>
-      <c r="O2" t="n">
-        <v>537336.8423459276</v>
-      </c>
       <c r="P2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459277</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115118</v>
+        <v>308990.6514115117</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.2233259059</v>
+        <v>87882.22332590586</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590581</v>
+        <v>87882.22332590591</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.2871979322</v>
+        <v>33324.28719793202</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456254</v>
+        <v>79420.38572456258</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>341966.2726892944</v>
       </c>
       <c r="F4" t="n">
-        <v>341966.2726892944</v>
+        <v>341966.2726892945</v>
       </c>
       <c r="G4" t="n">
         <v>398022.0726506228</v>
@@ -26439,13 +26439,13 @@
         <v>398022.0726506228</v>
       </c>
       <c r="J4" t="n">
-        <v>405719.4410900336</v>
+        <v>405719.4410900337</v>
       </c>
       <c r="K4" t="n">
         <v>405719.4410900336</v>
       </c>
       <c r="L4" t="n">
-        <v>405719.4410900336</v>
+        <v>405719.4410900337</v>
       </c>
       <c r="M4" t="n">
         <v>398950.3342181894</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29044.09759212584</v>
+        <v>29044.09759212583</v>
       </c>
       <c r="F5" t="n">
         <v>29044.09759212584</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310782</v>
+        <v>38279.31088310781</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310782</v>
+        <v>38279.31088310781</v>
       </c>
       <c r="I5" t="n">
-        <v>38279.31088310782</v>
+        <v>38279.31088310781</v>
       </c>
       <c r="J5" t="n">
         <v>49706.78585162481</v>
       </c>
       <c r="K5" t="n">
-        <v>49706.78585162481</v>
+        <v>49706.78585162479</v>
       </c>
       <c r="L5" t="n">
-        <v>49706.78585162479</v>
+        <v>49706.7858516248</v>
       </c>
       <c r="M5" t="n">
+        <v>45206.0670475825</v>
+      </c>
+      <c r="N5" t="n">
+        <v>45206.0670475825</v>
+      </c>
+      <c r="O5" t="n">
         <v>45206.06704758251</v>
-      </c>
-      <c r="N5" t="n">
-        <v>45206.06704758251</v>
-      </c>
-      <c r="O5" t="n">
-        <v>45206.06704758252</v>
       </c>
       <c r="P5" t="n">
         <v>45206.06704758252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65348.8768436788</v>
+        <v>65344.50827121161</v>
       </c>
       <c r="C6" t="n">
-        <v>65348.8768436788</v>
+        <v>65344.50827121161</v>
       </c>
       <c r="D6" t="n">
-        <v>65348.87684367868</v>
+        <v>65344.50827121172</v>
       </c>
       <c r="E6" t="n">
-        <v>-211500.263009095</v>
+        <v>-211746.1061650309</v>
       </c>
       <c r="F6" t="n">
-        <v>97490.38840241671</v>
+        <v>97244.54524648072</v>
       </c>
       <c r="G6" t="n">
-        <v>13153.23548629072</v>
+        <v>13153.23548629113</v>
       </c>
       <c r="H6" t="n">
-        <v>101035.4588121967</v>
+        <v>101035.4588121966</v>
       </c>
       <c r="I6" t="n">
-        <v>101035.4588121967</v>
+        <v>101035.4588121969</v>
       </c>
       <c r="J6" t="n">
-        <v>-90385.06487558749</v>
+        <v>-90385.0648755876</v>
       </c>
       <c r="K6" t="n">
-        <v>81910.61540426929</v>
+        <v>81910.61540426931</v>
       </c>
       <c r="L6" t="n">
-        <v>-5971.607921636605</v>
+        <v>-5971.607921636729</v>
       </c>
       <c r="M6" t="n">
-        <v>59856.15388222355</v>
+        <v>59856.15388222333</v>
       </c>
       <c r="N6" t="n">
-        <v>93180.44108015575</v>
+        <v>93180.44108015529</v>
       </c>
       <c r="O6" t="n">
-        <v>13760.05535559299</v>
+        <v>13760.05535559318</v>
       </c>
       <c r="P6" t="n">
-        <v>93180.44108015551</v>
+        <v>93180.44108015574</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="G2" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="H2" t="n">
         <v>329.9170228201716</v>
@@ -26707,19 +26707,19 @@
         <v>329.9170228201716</v>
       </c>
       <c r="J2" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="K2" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="L2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M2" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N2" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O2" t="n">
         <v>250.7836203105007</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="F3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="G3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="H3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="I3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="J3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="L3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="M3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="N3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="O3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="P3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26829,7 @@
         <v>354.9681802575035</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575037</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="G2" t="n">
+        <v>109.8527791573823</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99.27548215570317</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>109.8527791573824</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99.27548215570314</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>109.8527791573823</v>
-      </c>
       <c r="M2" t="n">
-        <v>41.65535899741525</v>
+        <v>41.65535899741502</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570317</v>
+        <v>99.27548215570323</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>220.0642436627892</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573824</v>
+        <v>109.8527791573823</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570314</v>
+        <v>99.27548215570317</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28108,31 +28108,31 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
-        <v>153.0249401179329</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="J11" t="n">
-        <v>107.3315132100092</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K11" t="n">
+        <v>119.2206547955826</v>
+      </c>
+      <c r="L11" t="n">
+        <v>145.1529675581324</v>
+      </c>
+      <c r="M11" t="n">
+        <v>104.8816095833261</v>
+      </c>
+      <c r="N11" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="L11" t="n">
-        <v>117.6182276069951</v>
-      </c>
-      <c r="M11" t="n">
-        <v>104.881609583326</v>
-      </c>
-      <c r="N11" t="n">
-        <v>102.7921185173355</v>
-      </c>
       <c r="O11" t="n">
-        <v>220.0642436627892</v>
+        <v>108.0080258701202</v>
       </c>
       <c r="P11" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.0106056443606</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="R11" t="n">
         <v>220.0642436627892</v>
@@ -28175,7 +28175,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>170.9489032745657</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28184,34 +28184,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H12" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I12" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J12" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K12" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28235,7 +28235,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>215.9872865177853</v>
       </c>
     </row>
     <row r="13">
@@ -28248,46 +28248,46 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
+        <v>167.9198098429365</v>
+      </c>
+      <c r="D13" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="D13" t="n">
-        <v>151.5411742405149</v>
-      </c>
       <c r="E13" t="n">
+        <v>200.8969541389809</v>
+      </c>
+      <c r="F13" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="F13" t="n">
-        <v>164.2317181852442</v>
-      </c>
       <c r="G13" t="n">
-        <v>220.0642436627892</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H13" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I13" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J13" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K13" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L13" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M13" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N13" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q13" t="n">
         <v>105.4981853689493</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="C14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="D14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="E14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="F14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="G14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="H14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="I14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="J14" t="n">
-        <v>220.0642436627892</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="L14" t="n">
-        <v>117.6182276069951</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="M14" t="n">
-        <v>104.881609583326</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N14" t="n">
         <v>102.7921185173355</v>
       </c>
       <c r="O14" t="n">
-        <v>138.8052487319444</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="P14" t="n">
-        <v>120.4975665775689</v>
+        <v>169.2441699204119</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="R14" t="n">
-        <v>220.0642436627892</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S14" t="n">
-        <v>220.0642436627892</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="U14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="V14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="W14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="X14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
     </row>
     <row r="15">
@@ -28421,34 +28421,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H15" t="n">
-        <v>96.51723797799072</v>
+        <v>121.9084114088587</v>
       </c>
       <c r="I15" t="n">
-        <v>97.62152631297133</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J15" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K15" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L15" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R15" t="n">
         <v>102.7991627330203</v>
@@ -28463,10 +28463,10 @@
         <v>216.2933510110464</v>
       </c>
       <c r="V15" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="W15" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -28482,49 +28482,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>162.5525254737263</v>
       </c>
       <c r="G16" t="n">
         <v>167.0203721066311</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I16" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J16" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K16" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L16" t="n">
-        <v>209.9683292225057</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M16" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P16" t="n">
-        <v>130.7464517144158</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q16" t="n">
         <v>105.4981853689493</v>
@@ -28533,22 +28533,22 @@
         <v>138.576149682035</v>
       </c>
       <c r="S16" t="n">
-        <v>220.0642436627892</v>
+        <v>207.9098175327</v>
       </c>
       <c r="T16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="U16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="V16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="W16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="X16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627894</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="C17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="D17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="E17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="F17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="H17" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="I17" t="n">
-        <v>279.3292832302433</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J17" t="n">
-        <v>107.3315132100092</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K17" t="n">
-        <v>119.2206547955825</v>
+        <v>119.2206547955826</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6182276069951</v>
+        <v>249.2406483240345</v>
       </c>
       <c r="M17" t="n">
-        <v>104.881609583326</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N17" t="n">
-        <v>234.4145392343748</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O17" t="n">
-        <v>108.0080258701201</v>
+        <v>239.6304465871595</v>
       </c>
       <c r="P17" t="n">
         <v>120.4975665775689</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.6467887197698</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529672</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S17" t="n">
         <v>306.3018383129482</v>
       </c>
       <c r="T17" t="n">
-        <v>220.0642436627892</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2989982740355</v>
+        <v>263.5279802836819</v>
       </c>
       <c r="V17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="W17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="X17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201717</v>
       </c>
     </row>
     <row r="18">
@@ -28658,34 +28658,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H18" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I18" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J18" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K18" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28737,31 +28737,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H19" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I19" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J19" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K19" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M19" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28822,40 +28822,40 @@
         <v>284.6473608349722</v>
       </c>
       <c r="J20" t="n">
-        <v>107.3315132100092</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K20" t="n">
-        <v>119.2206547955825</v>
+        <v>119.2206547955826</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6182276069951</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M20" t="n">
-        <v>104.881609583326</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N20" t="n">
         <v>102.7921185173355</v>
       </c>
       <c r="O20" t="n">
-        <v>108.0080258701201</v>
+        <v>108.0080258701202</v>
       </c>
       <c r="P20" t="n">
-        <v>246.8019096898793</v>
+        <v>252.1199872946082</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.6467887197698</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R20" t="n">
         <v>277.3526065700066</v>
       </c>
       <c r="S20" t="n">
-        <v>174.6794175959089</v>
+        <v>223.3657361620832</v>
       </c>
       <c r="T20" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2989982740355</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="V20" t="n">
         <v>329.9170228201716</v>
@@ -28895,34 +28895,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H21" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I21" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J21" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K21" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28974,31 +28974,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H22" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I22" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J22" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K22" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M22" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29056,34 +29056,34 @@
         <v>324.6944408748902</v>
       </c>
       <c r="I23" t="n">
-        <v>223.4809002437645</v>
+        <v>223.480900243764</v>
       </c>
       <c r="J23" t="n">
-        <v>107.3315132100092</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K23" t="n">
-        <v>119.2206547955825</v>
+        <v>119.2206547955826</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6182276069951</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M23" t="n">
-        <v>104.881609583326</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N23" t="n">
         <v>102.7921185173355</v>
       </c>
       <c r="O23" t="n">
-        <v>108.0080258701201</v>
+        <v>108.0080258701202</v>
       </c>
       <c r="P23" t="n">
         <v>120.4975665775689</v>
       </c>
       <c r="Q23" t="n">
-        <v>130.0243680027304</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R23" t="n">
-        <v>277.3526065700066</v>
+        <v>277.3526065700065</v>
       </c>
       <c r="S23" t="n">
         <v>306.3018383129482</v>
@@ -29132,34 +29132,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H24" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I24" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J24" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K24" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29211,31 +29211,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I25" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J25" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K25" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M25" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="D26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="E26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="H26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="I26" t="n">
-        <v>153.0249401179329</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="J26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="K26" t="n">
-        <v>209.1282613130855</v>
+        <v>119.2206547955826</v>
       </c>
       <c r="L26" t="n">
-        <v>61.24924966595239</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="M26" t="n">
-        <v>115.790802453754</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="O26" t="n">
-        <v>209.1282613130855</v>
+        <v>153.0106950554344</v>
       </c>
       <c r="P26" t="n">
-        <v>209.1282613130855</v>
+        <v>188.7498469291843</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="R26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="S26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="U26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="V26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="X26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
     </row>
     <row r="27">
@@ -29363,40 +29363,40 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>188.3646577198256</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>127.1905142842246</v>
       </c>
       <c r="H27" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I27" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K27" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130889</v>
+        <v>113.1592935315099</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839744</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
@@ -29408,13 +29408,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U27" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="V27" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="W27" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -29448,58 +29448,58 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I28" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J28" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M28" t="n">
-        <v>79.9306797039667</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083805</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>86.48380385827531</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="Q28" t="n">
-        <v>209.1282613130855</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R28" t="n">
-        <v>146.3707771672533</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="S28" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T28" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="U28" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="V28" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="W28" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="X28" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1282613130855</v>
+        <v>209.1282613130856</v>
       </c>
     </row>
     <row r="29">
@@ -29536,10 +29536,10 @@
         <v>209.1282613130855</v>
       </c>
       <c r="K29" t="n">
-        <v>65.74451811892997</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130855</v>
+        <v>139.2838440675156</v>
       </c>
       <c r="M29" t="n">
         <v>209.1282613130855</v>
@@ -29548,10 +29548,10 @@
         <v>209.1282613130855</v>
       </c>
       <c r="O29" t="n">
-        <v>209.1282613130855</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>209.1282613130855</v>
+        <v>188.7498469291843</v>
       </c>
       <c r="Q29" t="n">
         <v>209.1282613130855</v>
@@ -29606,34 +29606,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H30" t="n">
-        <v>138.3445925560897</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I30" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K30" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130889</v>
+        <v>113.1592935315104</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R30" t="n">
         <v>102.7991627330203</v>
@@ -29654,7 +29654,7 @@
         <v>209.1282613130855</v>
       </c>
       <c r="X30" t="n">
-        <v>209.1282613130855</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -29685,13 +29685,13 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H31" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I31" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,16 +29700,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>102.9515040499667</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q31" t="n">
         <v>105.4981853689493</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M32" t="n">
-        <v>3.695410663764243</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="33">
@@ -29843,52 +29843,52 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H33" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I33" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J33" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K33" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130889</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N33" t="n">
-        <v>41.51206923517107</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839744</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>60.98136935834783</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
       </c>
       <c r="S33" t="n">
-        <v>201.6326343566914</v>
+        <v>146.6148367064899</v>
       </c>
       <c r="T33" t="n">
         <v>185.7877530736877</v>
       </c>
       <c r="U33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -29904,49 +29904,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>209.1282613130854</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>209.1282613130854</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>209.1282613130854</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>209.1282613130854</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>209.1282613130854</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>178.737793365549</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I34" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K34" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M34" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N34" t="n">
-        <v>71.58137972518441</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O34" t="n">
-        <v>82.78808566083805</v>
+        <v>85.39913445228045</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827531</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>105.4981853689493</v>
@@ -29958,22 +29958,22 @@
         <v>207.9098175327</v>
       </c>
       <c r="T34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="D35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="E35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="F35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="G35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="H35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="I35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="J35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="K35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="M35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="P35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="R35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="S35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="T35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
     </row>
     <row r="36">
@@ -30080,34 +30080,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H36" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I36" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J36" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K36" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30159,34 +30159,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H37" t="n">
-        <v>230.7789236598679</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I37" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J37" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K37" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M37" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.4981853689493</v>
+        <v>180.3668729906173</v>
       </c>
       <c r="R37" t="n">
         <v>138.576149682035</v>
@@ -30198,13 +30198,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V37" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W37" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="C38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="D38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="E38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="F38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="G38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="H38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="I38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="J38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="K38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="M38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="P38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="R38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="S38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="T38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
     </row>
     <row r="39">
@@ -30317,34 +30317,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H39" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I39" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J39" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K39" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R39" t="n">
         <v>102.7991627330203</v>
@@ -30390,40 +30390,40 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>225.8245360461485</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>167.0203721066311</v>
       </c>
       <c r="H40" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I40" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J40" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K40" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M40" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O40" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.4981853689493</v>
+        <v>180.3668729906173</v>
       </c>
       <c r="R40" t="n">
         <v>138.576149682035</v>
@@ -30435,13 +30435,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V40" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -30554,34 +30554,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H42" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I42" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J42" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K42" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30633,31 +30633,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I43" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J43" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K43" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M43" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O43" t="n">
-        <v>82.78808566083805</v>
+        <v>157.6567732825059</v>
       </c>
       <c r="P43" t="n">
-        <v>118.4786887021423</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
@@ -30666,7 +30666,7 @@
         <v>138.576149682035</v>
       </c>
       <c r="S43" t="n">
-        <v>250.7836203105007</v>
+        <v>207.9098175327</v>
       </c>
       <c r="T43" t="n">
         <v>229.9491259395436</v>
@@ -30727,7 +30727,7 @@
         <v>250.7836203105007</v>
       </c>
       <c r="M44" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105009</v>
       </c>
       <c r="N44" t="n">
         <v>250.7836203105007</v>
@@ -30791,34 +30791,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H45" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I45" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J45" t="n">
-        <v>79.36985402649258</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K45" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839744</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160957</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>225.3576117179621</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30870,31 +30870,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H46" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I46" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J46" t="n">
-        <v>163.1928094699205</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K46" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M46" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q46" t="n">
         <v>105.4981853689493</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J11" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S11" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R12" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T12" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H13" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K13" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M13" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S13" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J14" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S14" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R15" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T15" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H16" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K16" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M16" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S16" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J17" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S17" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R18" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T18" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H19" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K19" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M19" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S19" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J20" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S20" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R21" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T21" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H22" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K22" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M22" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S22" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J23" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S23" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R24" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T24" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H25" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K25" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M25" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S25" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J26" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S26" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R27" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T27" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H28" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K28" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M28" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S28" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J29" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S29" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R30" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T30" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H31" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K31" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M31" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S31" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J32" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S32" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R33" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T33" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H34" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K34" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M34" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S34" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J35" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S35" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R36" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T36" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H37" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K37" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M37" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S37" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J38" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S38" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R39" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T39" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H40" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K40" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M40" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S40" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J41" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S41" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R42" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T42" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H43" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K43" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M43" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S43" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J44" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S44" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778209</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579549</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R45" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T45" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H46" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K46" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M46" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S46" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.03930354485627</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8435888672067</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.53473995113721</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>117.2721251454537</v>
       </c>
       <c r="O11" t="n">
-        <v>112.0562177926691</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>99.56667708522033</v>
+        <v>99.56667708522023</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.98623764163015</v>
+        <v>90.0398756600587</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982197</v>
+        <v>74.33405780982191</v>
       </c>
       <c r="S11" t="n">
-        <v>45.38482606688034</v>
+        <v>45.3848260668803</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35471,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.39117343086827</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>25.39117343086833</v>
       </c>
     </row>
     <row r="13">
@@ -35544,19 +35544,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>52.14443381985271</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.52306942227429</v>
       </c>
       <c r="E13" t="n">
-        <v>69.57531956649487</v>
+        <v>50.40803004268655</v>
       </c>
       <c r="F13" t="n">
-        <v>13.27586976076352</v>
+        <v>69.10839523830853</v>
       </c>
       <c r="G13" t="n">
-        <v>53.04387155615813</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35641,16 +35641,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.03930354485634</v>
+        <v>67.03930354485644</v>
       </c>
       <c r="J14" t="n">
-        <v>112.73273045278</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>100.8435888672067</v>
+        <v>100.8435888672068</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>102.4460160557942</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,19 +35659,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>30.79722286182428</v>
+        <v>112.0562177926691</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>48.74660334284292</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03987566005881</v>
+        <v>90.03987566005887</v>
       </c>
       <c r="R14" t="n">
-        <v>74.334057809822</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688036</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35717,10 +35717,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.39117343086799</v>
       </c>
       <c r="I15" t="n">
-        <v>25.39117343086821</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>38.34442866525333</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.52306942227446</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69.57531956649501</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>11.59667704924569</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>44.26264785614049</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35829,7 +35829,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.15442613008926</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.222581945281495</v>
       </c>
       <c r="I17" t="n">
-        <v>126.3043431123104</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>131.6224207170393</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>131.6224207170393</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>109.8527791573825</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>11.22898200964647</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36136,22 +36136,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>126.3043431123104</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>131.6224207170393</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>48.68631856617426</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>77.61802454613611</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>70.4559601258316</v>
+        <v>70.45596012583114</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>56.10332119515269</v>
       </c>
       <c r="J26" t="n">
-        <v>321.6223478267722</v>
+        <v>161.1798317696873</v>
       </c>
       <c r="K26" t="n">
-        <v>89.90760651750301</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>486.5906009745428</v>
+        <v>91.51003370609041</v>
       </c>
       <c r="M26" t="n">
-        <v>470.1123909805922</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>106.3361427957501</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1202354429654</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="P26" t="n">
-        <v>88.63069473551667</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.10389331035512</v>
+        <v>355.1133811682312</v>
       </c>
       <c r="R26" t="n">
         <v>148.8294212949955</v>
       </c>
       <c r="S26" t="n">
-        <v>34.44884371717667</v>
+        <v>34.44884371717672</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36659,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>55.01779765020116</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.01779765020099</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>58.3626069021505</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>184.181044591531</v>
       </c>
       <c r="Q28" t="n">
-        <v>188.5759218352132</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.794627485218302</v>
+        <v>70.55211163105065</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10332119515265</v>
+        <v>56.10332119515255</v>
       </c>
       <c r="J29" t="n">
-        <v>321.6223478267722</v>
+        <v>321.6223478267721</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>188.2616996120002</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51003370609043</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="M29" t="n">
-        <v>104.2466517297595</v>
+        <v>104.2466517297594</v>
       </c>
       <c r="N29" t="n">
-        <v>106.3361427957501</v>
+        <v>106.3361427957499</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>486.5906009745428</v>
       </c>
-      <c r="P29" t="n">
-        <v>221.9014331876986</v>
-      </c>
       <c r="Q29" t="n">
-        <v>355.1133811682312</v>
+        <v>79.10389331035498</v>
       </c>
       <c r="R29" t="n">
-        <v>148.8294212949955</v>
+        <v>63.39807546011819</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717667</v>
+        <v>34.44884371717658</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>41.82735457809896</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>55.01779765020142</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36950,7 +36950,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>13.1904430721022</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>58.3626069021505</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>254.7331562225826</v>
       </c>
       <c r="O31" t="n">
-        <v>129.1660806148091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>67.20446870562236</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515253</v>
+        <v>56.10332119515263</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6223478267721</v>
+        <v>101.7967481030763</v>
       </c>
       <c r="K32" t="n">
-        <v>486.5906009745428</v>
+        <v>89.90760651750296</v>
       </c>
       <c r="L32" t="n">
-        <v>270.4920092091494</v>
+        <v>91.51003370609035</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>479.4859839573562</v>
       </c>
       <c r="N32" t="n">
         <v>106.33614279575</v>
       </c>
       <c r="O32" t="n">
-        <v>101.1202354429653</v>
+        <v>374.5400004053211</v>
       </c>
       <c r="P32" t="n">
-        <v>486.5906009745428</v>
+        <v>88.6306947355166</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>355.1133811682312</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011819</v>
+        <v>148.8294212949954</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717656</v>
+        <v>34.44884371717666</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>55.01779765020116</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>55.0177976502015</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37200,22 +37200,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.40844631554941</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.20845147014893</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.58708707257054</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>58.63933721679109</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>58.17241288860478</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.71742125891796</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>137.5468815879011</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>117.1862746346809</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256778</v>
+        <v>97.75868019256771</v>
       </c>
       <c r="J35" t="n">
         <v>143.4521071004914</v>
       </c>
       <c r="K35" t="n">
-        <v>131.5629655149181</v>
+        <v>131.562965514918</v>
       </c>
       <c r="L35" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035054</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271746</v>
       </c>
       <c r="N35" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931654</v>
       </c>
       <c r="O35" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403804</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.7592523077692</v>
+        <v>120.7592523077701</v>
       </c>
       <c r="R35" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459181</v>
+        <v>76.10420271459174</v>
       </c>
       <c r="T35" t="n">
-        <v>30.71937664771148</v>
+        <v>30.71937664771142</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>74.8686876216678</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>74.86868762166797</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256778</v>
+        <v>97.75868019256771</v>
       </c>
       <c r="J38" t="n">
         <v>143.4521071004914</v>
       </c>
       <c r="K38" t="n">
-        <v>131.5629655149181</v>
+        <v>131.562965514918</v>
       </c>
       <c r="L38" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035054</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271746</v>
       </c>
       <c r="N38" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931654</v>
       </c>
       <c r="O38" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403804</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077701</v>
       </c>
       <c r="R38" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459181</v>
+        <v>76.10420271459174</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771148</v>
+        <v>30.71937664771142</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>74.8686876216678</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>74.86868762166797</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256781</v>
+        <v>97.75868019256777</v>
       </c>
       <c r="J41" t="n">
-        <v>143.4521071004915</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K41" t="n">
-        <v>131.5629655149182</v>
+        <v>131.5629655149181</v>
       </c>
       <c r="L41" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035055</v>
       </c>
       <c r="M41" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271746</v>
       </c>
       <c r="N41" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O41" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P41" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R41" t="n">
-        <v>105.0534344575335</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459184</v>
+        <v>76.10420271459179</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771153</v>
+        <v>30.71937664771147</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>74.8686876216678</v>
       </c>
       <c r="P43" t="n">
-        <v>31.99488484386699</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>42.87380277780073</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.75868019256781</v>
+        <v>97.75868019256777</v>
       </c>
       <c r="J44" t="n">
-        <v>143.4521071004915</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K44" t="n">
-        <v>131.5629655149182</v>
+        <v>131.5629655149181</v>
       </c>
       <c r="L44" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035055</v>
       </c>
       <c r="M44" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271748</v>
       </c>
       <c r="N44" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P44" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.7592523077688</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R44" t="n">
-        <v>105.0534344575335</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459184</v>
+        <v>76.10420271459179</v>
       </c>
       <c r="T44" t="n">
-        <v>30.71937664771151</v>
+        <v>30.71937664771148</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>74.86868762166779</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.86868762166772</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
